--- a/studio/ridondanze.xlsx
+++ b/studio/ridondanze.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele\Desktop\basi di dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B091CE71-6B04-4695-B83D-3C2684F671AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1649EBE-E7F9-491F-8573-FC6A65D5A424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{91FA3657-E8E7-49B6-A126-2EB05D5FBC1E}"/>
+    <workbookView xWindow="-20520" yWindow="3420" windowWidth="20640" windowHeight="11760" xr2:uid="{91FA3657-E8E7-49B6-A126-2EB05D5FBC1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="65">
   <si>
     <t>Tabella volumi</t>
   </si>
@@ -66,21 +88,12 @@
     <t>Proiezione</t>
   </si>
   <si>
-    <t>Proiettato</t>
-  </si>
-  <si>
-    <t>Proiettato in</t>
-  </si>
-  <si>
     <t>Proiezione di</t>
   </si>
   <si>
     <t>Attore</t>
   </si>
   <si>
-    <t>Partecipa</t>
-  </si>
-  <si>
     <t>Sequel di</t>
   </si>
   <si>
@@ -117,9 +130,6 @@
     <t>Op 1</t>
   </si>
   <si>
-    <t>Lavora in</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -187,9 +197,6 @@
   </si>
   <si>
     <t>Quindi totale 40 update per proiezione</t>
-  </si>
-  <si>
-    <t>Proiettato  in</t>
   </si>
   <si>
     <t>Ridondanza su incasso totale film</t>
@@ -233,6 +240,18 @@
   </si>
   <si>
     <t>raramente aggiornato, la ridondanza non ha senso</t>
+  </si>
+  <si>
+    <t>Impieghi corr</t>
+  </si>
+  <si>
+    <t>Impieghi cor</t>
+  </si>
+  <si>
+    <t>Ruolo in</t>
+  </si>
+  <si>
+    <t>Avvenuta  in</t>
   </si>
 </sst>
 </file>
@@ -512,13 +531,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,8 +579,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{925A56DC-3543-4B96-AB73-46E438F71C87}" name="Tabella16" displayName="Tabella16" ref="M30:P31" totalsRowShown="0">
-  <autoFilter ref="M30:P31" xr:uid="{F65F9C1D-7AEC-46A4-8595-800A1E0CAB66}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{925A56DC-3543-4B96-AB73-46E438F71C87}" name="Tabella16" displayName="Tabella16" ref="M36:P37" totalsRowShown="0">
+  <autoFilter ref="M36:P37" xr:uid="{F65F9C1D-7AEC-46A4-8595-800A1E0CAB66}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -578,8 +597,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{769C7A8C-30E0-45C9-BAE1-B1F5167AAC51}" name="Tabella17" displayName="Tabella17" ref="M40:P43" totalsRowShown="0">
-  <autoFilter ref="M40:P43" xr:uid="{DAADC353-A5DE-4433-A842-9D2878147B6E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{769C7A8C-30E0-45C9-BAE1-B1F5167AAC51}" name="Tabella17" displayName="Tabella17" ref="M45:P48" totalsRowShown="0">
+  <autoFilter ref="M45:P48" xr:uid="{DAADC353-A5DE-4433-A842-9D2878147B6E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -596,8 +615,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{719DDD88-CD3E-439C-B2FD-11F8333012A1}" name="Tabella18" displayName="Tabella18" ref="M45:P46" totalsRowShown="0">
-  <autoFilter ref="M45:P46" xr:uid="{46BA6E23-583E-47A8-81C7-40B38D4C551E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{719DDD88-CD3E-439C-B2FD-11F8333012A1}" name="Tabella18" displayName="Tabella18" ref="M50:P52" totalsRowShown="0">
+  <autoFilter ref="M50:P52" xr:uid="{46BA6E23-583E-47A8-81C7-40B38D4C551E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -614,8 +633,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{775551A0-8C1A-4735-9D7F-2D259C0F100C}" name="Tabella19" displayName="Tabella19" ref="M55:P57" totalsRowShown="0">
-  <autoFilter ref="M55:P57" xr:uid="{196D5410-DF13-46A7-89BB-C3C359152A5C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{775551A0-8C1A-4735-9D7F-2D259C0F100C}" name="Tabella19" displayName="Tabella19" ref="M61:P63" totalsRowShown="0">
+  <autoFilter ref="M61:P63" xr:uid="{196D5410-DF13-46A7-89BB-C3C359152A5C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -632,8 +651,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{61ACA59B-329A-4109-9A2B-E6548D0A11CA}" name="Tabella20" displayName="Tabella20" ref="M60:P63" totalsRowShown="0">
-  <autoFilter ref="M60:P63" xr:uid="{0C877503-4C6C-4798-B1B2-83FD6B37150A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{61ACA59B-329A-4109-9A2B-E6548D0A11CA}" name="Tabella20" displayName="Tabella20" ref="M65:P69" totalsRowShown="0">
+  <autoFilter ref="M65:P69" xr:uid="{0C877503-4C6C-4798-B1B2-83FD6B37150A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -650,8 +669,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D7ADA72E-A8C6-4D76-BDA6-FE59A1BC527D}" name="Tabella21" displayName="Tabella21" ref="M65:P66" totalsRowShown="0">
-  <autoFilter ref="M65:P66" xr:uid="{4A887DD2-F7FA-40B8-BBA3-DB789EBF6A0D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D7ADA72E-A8C6-4D76-BDA6-FE59A1BC527D}" name="Tabella21" displayName="Tabella21" ref="M71:P72" totalsRowShown="0">
+  <autoFilter ref="M71:P72" xr:uid="{4A887DD2-F7FA-40B8-BBA3-DB789EBF6A0D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -668,8 +687,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{26769E1E-2EEE-4FFE-B73C-982130DF257F}" name="Tabella22" displayName="Tabella22" ref="M73:P76" totalsRowShown="0">
-  <autoFilter ref="M73:P76" xr:uid="{63D148D7-F55F-407F-AD03-E82C27A7250A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{26769E1E-2EEE-4FFE-B73C-982130DF257F}" name="Tabella22" displayName="Tabella22" ref="M79:P83" totalsRowShown="0">
+  <autoFilter ref="M79:P83" xr:uid="{63D148D7-F55F-407F-AD03-E82C27A7250A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -686,8 +705,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{31666BAD-00AA-4F30-B5C0-B1B27092C529}" name="Tabella23" displayName="Tabella23" ref="M78:P79" totalsRowShown="0">
-  <autoFilter ref="M78:P79" xr:uid="{69BD85B0-E7C9-421A-9B2F-79ACA01BA50E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{31666BAD-00AA-4F30-B5C0-B1B27092C529}" name="Tabella23" displayName="Tabella23" ref="M85:P86" totalsRowShown="0">
+  <autoFilter ref="M85:P86" xr:uid="{69BD85B0-E7C9-421A-9B2F-79ACA01BA50E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -704,8 +723,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FE5239EF-744E-4D70-8744-1F916C2B2957}" name="Tabella24" displayName="Tabella24" ref="R3:U4" totalsRowShown="0">
-  <autoFilter ref="R3:U4" xr:uid="{B82A1180-3D1B-46E7-86E6-0AC52B1872B8}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FE5239EF-744E-4D70-8744-1F916C2B2957}" name="Tabella24" displayName="Tabella24" ref="R3:U5" totalsRowShown="0">
+  <autoFilter ref="R3:U5" xr:uid="{B82A1180-3D1B-46E7-86E6-0AC52B1872B8}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -722,8 +741,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{06E7AC4C-F0AF-4AB4-8378-4070F4B9BC03}" name="Tabella25" displayName="Tabella25" ref="R7:U9" totalsRowShown="0">
-  <autoFilter ref="R7:U9" xr:uid="{2F8DFA85-A23F-45FA-B0CF-7FA07F4F58E2}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{06E7AC4C-F0AF-4AB4-8378-4070F4B9BC03}" name="Tabella25" displayName="Tabella25" ref="R9:U11" totalsRowShown="0">
+  <autoFilter ref="R9:U11" xr:uid="{2F8DFA85-A23F-45FA-B0CF-7FA07F4F58E2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -732,9 +751,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{03A714F8-5EBB-40F7-9CE0-92A77749797D}" name="Operazione"/>
     <tableColumn id="2" xr3:uid="{F4B03062-52E8-4CCB-A635-9EB19EEFA8D0}" name="Concetto"/>
-    <tableColumn id="3" xr3:uid="{82431B76-AC65-4912-8018-D9E3E6D0558A}" name="Accessi">
-      <calculatedColumnFormula>D10/D4</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="3" xr3:uid="{82431B76-AC65-4912-8018-D9E3E6D0558A}" name="Accessi"/>
     <tableColumn id="4" xr3:uid="{AC33C778-0B42-4B78-9EF0-83F2242C5A51}" name="Tipo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -758,8 +775,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{55B3FB23-14A0-4893-855A-21A016950078}" name="Tabella26" displayName="Tabella26" ref="R78:U81" totalsRowShown="0">
-  <autoFilter ref="R78:U81" xr:uid="{FF8390AD-CCBD-4E82-A3D8-76524B67A2B2}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{55B3FB23-14A0-4893-855A-21A016950078}" name="Tabella26" displayName="Tabella26" ref="R85:U88" totalsRowShown="0">
+  <autoFilter ref="R85:U88" xr:uid="{FF8390AD-CCBD-4E82-A3D8-76524B67A2B2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -788,8 +805,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DFBA3BE8-F54F-4050-AA5C-7A703BCF8622}" name="Tabella10" displayName="Tabella10" ref="H15:K17" totalsRowShown="0">
-  <autoFilter ref="H15:K17" xr:uid="{BE8498C9-3EEE-4B80-98A1-F0FFC2FF07DB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DFBA3BE8-F54F-4050-AA5C-7A703BCF8622}" name="Tabella10" displayName="Tabella10" ref="H17:K19" totalsRowShown="0">
+  <autoFilter ref="H17:K19" xr:uid="{BE8498C9-3EEE-4B80-98A1-F0FFC2FF07DB}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -806,8 +823,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{65C76D64-28ED-477D-818B-0D380183E3AF}" name="Tabella11" displayName="Tabella11" ref="M3:P5" totalsRowShown="0">
-  <autoFilter ref="M3:P5" xr:uid="{47A09316-DBD3-470B-B4A2-A549BD0B2E97}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{65C76D64-28ED-477D-818B-0D380183E3AF}" name="Tabella11" displayName="Tabella11" ref="M3:P7" totalsRowShown="0">
+  <autoFilter ref="M3:P7" xr:uid="{47A09316-DBD3-470B-B4A2-A549BD0B2E97}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -824,8 +841,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6BB2A19B-F5D7-4513-A776-89E2E946DECE}" name="Tabella12" displayName="Tabella12" ref="M7:P8" totalsRowShown="0">
-  <autoFilter ref="M7:P8" xr:uid="{B69AC864-1CE5-486F-944F-56E052F42B19}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6BB2A19B-F5D7-4513-A776-89E2E946DECE}" name="Tabella12" displayName="Tabella12" ref="M9:P10" totalsRowShown="0">
+  <autoFilter ref="M9:P10" xr:uid="{B69AC864-1CE5-486F-944F-56E052F42B19}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -842,8 +859,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{9C4A718A-FC58-4092-BE8B-3597E5BAD896}" name="Tabella13" displayName="Tabella13" ref="M14:P17" totalsRowShown="0">
-  <autoFilter ref="M14:P17" xr:uid="{F80D99BE-05F5-4EC1-AAF8-26BFEC1BAA6D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{9C4A718A-FC58-4092-BE8B-3597E5BAD896}" name="Tabella13" displayName="Tabella13" ref="M16:P20" totalsRowShown="0">
+  <autoFilter ref="M16:P20" xr:uid="{F80D99BE-05F5-4EC1-AAF8-26BFEC1BAA6D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -860,8 +877,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{98430BB1-79FC-4D83-A64A-35E76AEF7985}" name="Tabella14" displayName="Tabella14" ref="M19:P20" totalsRowShown="0">
-  <autoFilter ref="M19:P20" xr:uid="{EE4E4FFD-2B47-40FA-AF01-95C01E72D074}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{98430BB1-79FC-4D83-A64A-35E76AEF7985}" name="Tabella14" displayName="Tabella14" ref="M23:P24" totalsRowShown="0">
+  <autoFilter ref="M23:P24" xr:uid="{EE4E4FFD-2B47-40FA-AF01-95C01E72D074}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -878,8 +895,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7B157CA2-714F-408D-8910-542178978C3E}" name="Tabella15" displayName="Tabella15" ref="M26:P28" totalsRowShown="0">
-  <autoFilter ref="M26:P28" xr:uid="{F16D74F8-B809-41B7-BD93-32E51D60B17E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7B157CA2-714F-408D-8910-542178978C3E}" name="Tabella15" displayName="Tabella15" ref="M30:P33" totalsRowShown="0">
+  <autoFilter ref="M30:P33" xr:uid="{F16D74F8-B809-41B7-BD93-32E51D60B17E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1192,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90C10CF-E4A2-4785-842E-3B879B5792DE}">
-  <dimension ref="B2:U83"/>
+  <dimension ref="B2:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U91" sqref="U91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,100 +1237,100 @@
   <sheetData>
     <row r="2" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M2" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
       <c r="R2" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
     <row r="3" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="H3" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="H3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -1321,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1330,22 +1347,31 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="S5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -1353,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <f>D7</f>
@@ -1363,13 +1389,22 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1377,34 +1412,19 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>25</v>
       </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
       <c r="N7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -1412,34 +1432,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>250</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1447,21 +1443,35 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <f>D5</f>
         <v>5</v>
       </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
       <c r="S9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9">
-        <f>D11/D5</f>
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
       </c>
       <c r="U9" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
@@ -1469,50 +1479,56 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <f>D5</f>
         <v>5</v>
       </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="12">
-        <f>J5*O4*2+J5*O5*2+J6*O8</f>
-        <v>75</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="12" t="str">
-        <f>K5</f>
-        <v>a settimana</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="22">
-        <f>J5*T4*2+J6*T8*T9</f>
-        <v>720</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" s="22" t="str">
-        <f>K6</f>
-        <v>a settimana</v>
+      <c r="S11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11">
+        <f>D11/D5</f>
+        <v>20</v>
+      </c>
+      <c r="U11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
@@ -1520,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>400</v>
@@ -1531,671 +1547,604 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>35000</v>
       </c>
-    </row>
-    <row r="14" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="12" cm="1">
+        <f t="array" ref="N13">(O4+O5*2+O6+O7*2)*J5+Tabella12[Accessi]*J6</f>
+        <v>95</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="12" t="str">
+        <f>K5</f>
+        <v>a settimana</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="22">
+        <f>J5*T5*2+J6*T10*T11+T4*J5</f>
+        <v>730</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="22" t="str">
+        <f>K6</f>
+        <v>a settimana</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <f>D13</f>
         <v>35000</v>
       </c>
-      <c r="H14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>500</v>
       </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T15" s="4">
-        <v>1</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <f>D13</f>
         <v>35000</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
+      <c r="H16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="M16" t="s">
+        <v>18</v>
       </c>
       <c r="N16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="7">
-        <v>1</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
         <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
       </c>
       <c r="D17">
         <v>2000</v>
       </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17">
-        <v>25</v>
-      </c>
-      <c r="K17" t="s">
-        <v>44</v>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
       </c>
       <c r="D18">
         <v>6000</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
-      <c r="M19" t="s">
-        <v>21</v>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
       </c>
       <c r="N19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="M20" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="N20" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T20" s="4">
-        <v>1</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="R21" s="6"/>
-      <c r="S21" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R25" s="6"/>
+      <c r="S25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T25" s="7">
         <f>D16/D15</f>
         <v>70</v>
       </c>
-      <c r="U21" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="12">
-        <f>J16*O15*2+J16*O16*2+J16*O17*2+J17*O20*1</f>
-        <v>625</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="12" t="str">
-        <f>K16</f>
+      <c r="U25" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="12" cm="1">
+        <f t="array" ref="N27">(O17*2+O18/2+O19+O20*2)*J18+Tabella14[Accessi]*J19</f>
+        <v>575</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="12" t="str">
+        <f>K18</f>
         <v>al giorno</v>
       </c>
-      <c r="R23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="22">
-        <f>J16*T15*2+J16*T16*2+J17*T20+J17*T21</f>
+      <c r="R27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="22">
+        <f>J18*T17*2+J18*T18*2+J19*T24+J19*T25</f>
         <v>2175</v>
       </c>
-      <c r="T23" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" s="22" t="str">
+      <c r="T27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U27" s="22" t="str">
         <f>K5</f>
         <v>a settimana</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H26" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="M26" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" t="s">
-        <v>60</v>
-      </c>
-      <c r="O26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P26" t="s">
-        <v>61</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H27" s="2"/>
-      <c r="I27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="10" t="s">
+    <row r="30" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="2"/>
+      <c r="I31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31" s="7">
+        <v>1</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="4">
+        <v>120</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
         <v>63</v>
       </c>
-      <c r="M27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T32" s="17">
+        <v>1</v>
+      </c>
+      <c r="U32" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H33" s="6">
+        <v>2</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="7">
+        <v>70</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T37" s="4">
+        <v>1</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="8:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="6"/>
+      <c r="S38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T38" s="7">
+        <v>3</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="M41" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" s="17">
-        <v>1</v>
-      </c>
-      <c r="U27" s="18" t="s">
+      <c r="N41" s="22" cm="1">
+        <f t="array" ref="N41">(O31+O32*2+O33*2)*J32+Tabella16[Accessi]*J33</f>
+        <v>670</v>
+      </c>
+      <c r="O41" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="22" t="str">
+        <f>K32</f>
+        <v>a settimana</v>
+      </c>
+      <c r="R41" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="S41" s="12">
+        <f>J32*T32*2+J33*T38+J33*T37+T31*J32</f>
+        <v>640</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U41" s="12" t="str">
+        <f>K32</f>
+        <v>a settimana</v>
+      </c>
+    </row>
+    <row r="45" spans="8:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H45" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="4">
-        <v>120</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H29" s="6">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="M45" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U45" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="7">
-        <v>70</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M30" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" t="s">
-        <v>60</v>
-      </c>
-      <c r="O30" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" t="s">
-        <v>61</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="M31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" t="s">
-        <v>13</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T31" s="4">
-        <v>1</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="R32" s="6"/>
-      <c r="S32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T32" s="7">
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="M46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="M35" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="22">
-        <f>J28*O27*2+J28*O28*2+J29*O31*1</f>
-        <v>550</v>
-      </c>
-      <c r="O35" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P35" s="22" t="str">
-        <f>K28</f>
-        <v>a settimana</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S35" s="12">
-        <f>J28*T27*2+J29*T32+J29*T31</f>
-        <v>520</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="U35" s="12" t="str">
-        <f>K28</f>
-        <v>a settimana</v>
-      </c>
-    </row>
-    <row r="38" spans="8:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-    </row>
-    <row r="39" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H39" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-    </row>
-    <row r="40" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="2"/>
-      <c r="I40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" t="s">
-        <v>60</v>
-      </c>
-      <c r="O40" t="s">
-        <v>33</v>
-      </c>
-      <c r="P40" t="s">
-        <v>61</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U40" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="4">
-        <v>100</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41" t="s">
-        <v>30</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T41" s="4">
-        <v>1</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" s="7">
-        <v>4000</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N42" t="s">
-        <v>9</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42" t="s">
-        <v>28</v>
-      </c>
-      <c r="R42" s="6"/>
-      <c r="S42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="T42" s="7">
-        <v>1</v>
-      </c>
-      <c r="U42" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="N43" t="s">
-        <v>51</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I45" t="s">
-        <v>49</v>
-      </c>
-      <c r="M45" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" t="s">
-        <v>60</v>
-      </c>
-      <c r="O45" t="s">
-        <v>33</v>
-      </c>
-      <c r="P45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U45" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
-        <v>50</v>
-      </c>
-      <c r="M46" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" t="s">
-        <v>9</v>
-      </c>
       <c r="O46">
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="S46" s="4" t="s">
         <v>9</v>
@@ -2204,639 +2153,802 @@
         <v>1</v>
       </c>
       <c r="U46" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="2"/>
+      <c r="I47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N47" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T47" s="7">
+        <v>1</v>
+      </c>
+      <c r="U47" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" s="4">
+        <v>100</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" t="s">
+        <v>64</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="7">
+        <v>4000</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M50" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U50" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" t="s">
+        <v>9</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" t="s">
+        <v>26</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" s="4">
+        <v>1</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>45</v>
+      </c>
+      <c r="N52" t="s">
+        <v>9</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" s="19"/>
+      <c r="S52" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T52" s="20">
+        <v>1</v>
+      </c>
+      <c r="U52" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="8:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>46</v>
+      </c>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="T53" s="17">
+        <v>1</v>
+      </c>
+      <c r="U53" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="R54" s="20"/>
+      <c r="S54" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="20">
+        <v>1</v>
+      </c>
+      <c r="U54" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="R47" s="19"/>
-      <c r="S47" s="20" t="s">
+      <c r="N56" s="12">
+        <f>J48*(O46+O47*2+O48*2)+J49*(O51*2+O52)</f>
+        <v>12500</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" s="12" t="str">
+        <f>K48</f>
+        <v>al giorno</v>
+      </c>
+      <c r="R56" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S56" s="22">
+        <f>J48*(T46*2+T47*2)+J49*(T51*2+T52+T53+T54)</f>
+        <v>20400</v>
+      </c>
+      <c r="T56" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U56" s="22" t="str">
+        <f>K48</f>
+        <v>al giorno</v>
+      </c>
+    </row>
+    <row r="61" spans="8:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H61" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="M61" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" t="s">
+        <v>56</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S61" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U61" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="M62" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>24</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T62" s="4">
+        <v>1</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H63" s="2"/>
+      <c r="I63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63" t="s">
+        <v>24</v>
+      </c>
+      <c r="R63" s="6"/>
+      <c r="S63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T63" s="7">
+        <v>1</v>
+      </c>
+      <c r="U63" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" s="4">
+        <v>100</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J65" s="7">
+        <v>4000</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M65" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" t="s">
+        <v>55</v>
+      </c>
+      <c r="O65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" t="s">
+        <v>56</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S65" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T65" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U65" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T47" s="20">
-        <v>1</v>
-      </c>
-      <c r="U47" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
-        <v>64</v>
-      </c>
-      <c r="R48" s="16"/>
-      <c r="S48" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="17">
-        <v>1</v>
-      </c>
-      <c r="U48" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="I49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="M50" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" s="12">
-        <f>J41*(O41+O42*2+O43*2)+J42*O46*2</f>
-        <v>8500</v>
-      </c>
-      <c r="O50" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P50" s="12" t="str">
-        <f>K41</f>
-        <v>al giorno</v>
-      </c>
-      <c r="R50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S50" s="22">
-        <f>J41*(T41*2+T42*2)+J42*(T46*2+T47+T48)</f>
-        <v>16400</v>
-      </c>
-      <c r="T50" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="U50" s="22" t="str">
-        <f>K41</f>
-        <v>al giorno</v>
-      </c>
-    </row>
-    <row r="53" spans="8:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-    </row>
-    <row r="54" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H54" s="27" t="s">
+      <c r="I66" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="4">
+        <v>25</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M66" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" t="s">
+        <v>9</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>24</v>
+      </c>
+      <c r="R66" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T66" s="17">
+        <v>1</v>
+      </c>
+      <c r="U66" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>45</v>
+      </c>
+      <c r="N68" t="s">
+        <v>15</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
         <v>46</v>
       </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-    </row>
-    <row r="55" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H55" s="2"/>
-      <c r="I55" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" t="s">
-        <v>60</v>
-      </c>
-      <c r="O55" t="s">
-        <v>33</v>
-      </c>
-      <c r="P55" t="s">
-        <v>61</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S55" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U55" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="4" t="s">
+      <c r="N69" t="s">
+        <v>15</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M71" t="s">
+        <v>55</v>
+      </c>
+      <c r="N71" t="s">
+        <v>29</v>
+      </c>
+      <c r="O71" t="s">
+        <v>56</v>
+      </c>
+      <c r="P71" t="s">
         <v>54</v>
       </c>
-      <c r="J56" s="4">
-        <v>100</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M56" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" t="s">
-        <v>9</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56" t="s">
-        <v>28</v>
-      </c>
-      <c r="R56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T56" s="4">
-        <v>1</v>
-      </c>
-      <c r="U56" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J57" s="7">
-        <v>4000</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N57" t="s">
-        <v>12</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57" t="s">
-        <v>28</v>
-      </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T57" s="7">
-        <v>1</v>
-      </c>
-      <c r="U57" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H58" s="3" t="s">
+      <c r="R71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S71" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T71" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U71" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="4">
-        <v>25</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I60" t="s">
-        <v>49</v>
-      </c>
-      <c r="M60" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" t="s">
-        <v>60</v>
-      </c>
-      <c r="O60" t="s">
-        <v>33</v>
-      </c>
-      <c r="P60" t="s">
-        <v>61</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S60" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T60" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U60" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I61" t="s">
-        <v>50</v>
-      </c>
-      <c r="M61" t="s">
-        <v>29</v>
-      </c>
-      <c r="N61" t="s">
-        <v>9</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61" t="s">
-        <v>28</v>
-      </c>
-      <c r="R61" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S61" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="T61" s="17">
-        <v>1</v>
-      </c>
-      <c r="U61" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="N62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="N63" t="s">
-        <v>18</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M65" t="s">
-        <v>60</v>
-      </c>
-      <c r="N65" t="s">
-        <v>33</v>
-      </c>
-      <c r="O65" t="s">
-        <v>61</v>
-      </c>
-      <c r="P65" t="s">
-        <v>59</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T65" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U65" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="M66" t="s">
-        <v>56</v>
-      </c>
-      <c r="N66" t="s">
-        <v>18</v>
-      </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66" t="s">
-        <v>30</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T66" s="4">
-        <v>1</v>
-      </c>
-      <c r="U66" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="R67" s="19"/>
-      <c r="S67" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T67" s="20">
+    </row>
+    <row r="72" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>51</v>
+      </c>
+      <c r="N72" t="s">
+        <v>15</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72" t="s">
+        <v>26</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T72" s="4">
+        <v>1</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="R73" s="19"/>
+      <c r="S73" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T73" s="20">
         <f>D16/D15</f>
         <v>70</v>
       </c>
-      <c r="U67" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="R68" s="16"/>
-      <c r="S68" s="17" t="s">
+      <c r="U73" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="R74" s="16"/>
+      <c r="S74" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T68" s="17">
-        <f>T67</f>
+      <c r="T74" s="17">
+        <f>T73</f>
         <v>70</v>
       </c>
-      <c r="U68" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="M70" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N70" s="22">
-        <f>J56*(O56*2+O57*2)+J57*(O61*2+O62+O63*2)+J58*O66</f>
-        <v>20425</v>
-      </c>
-      <c r="O70" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P70" s="22" t="str">
-        <f>K56</f>
+      <c r="U74" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="M76" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N76" s="22">
+        <f>J64*(O62*2+O63*2)+J65*(O66*2+O67+O68*2+O69)+J66*O72</f>
+        <v>24425</v>
+      </c>
+      <c r="O76" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76" s="22" t="str">
+        <f>K64</f>
         <v>al giorno</v>
       </c>
-      <c r="R70" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S70" s="12">
-        <f>J56*(T56*2+T57*2)+J57*T61*2+J58*(T66+T67+T68)</f>
+      <c r="R76" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S76" s="12">
+        <f>J64*(T62*2+T63*2)+J65*T66*2+J66*(T72+T73+T74)</f>
         <v>11925</v>
       </c>
-      <c r="T70" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="U70" s="12" t="str">
-        <f>K56</f>
+      <c r="T76" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U76" s="12" t="str">
+        <f>K64</f>
         <v>al giorno</v>
       </c>
     </row>
-    <row r="72" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H72" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-    </row>
-    <row r="73" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H73" s="2"/>
-      <c r="I73" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M73" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" t="s">
-        <v>60</v>
-      </c>
-      <c r="O73" t="s">
-        <v>33</v>
-      </c>
-      <c r="P73" t="s">
-        <v>61</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S73" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T73" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U73" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J74" s="4">
+    <row r="79" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H79" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="M79" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O79" t="s">
+        <v>29</v>
+      </c>
+      <c r="P79" t="s">
+        <v>56</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S79" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T79" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U79" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="8:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H80" s="2"/>
+      <c r="I80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M80" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" t="s">
+        <v>9</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" t="s">
+        <v>24</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T80" s="4">
+        <v>1</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="8:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J81" s="4">
         <v>100</v>
       </c>
-      <c r="K74" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M74" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" t="s">
+      <c r="K81" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N81" t="s">
+        <v>10</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" t="s">
+        <v>24</v>
+      </c>
+      <c r="R81" s="6"/>
+      <c r="S81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T81" s="7">
+        <v>1</v>
+      </c>
+      <c r="U81" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J82" s="7">
+        <v>25</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N82" t="s">
+        <v>15</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>15</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>18</v>
+      </c>
+      <c r="N85" t="s">
+        <v>55</v>
+      </c>
+      <c r="O85" t="s">
+        <v>29</v>
+      </c>
+      <c r="P85" t="s">
+        <v>56</v>
+      </c>
+      <c r="R85" t="s">
+        <v>18</v>
+      </c>
+      <c r="S85" t="s">
+        <v>55</v>
+      </c>
+      <c r="T85" t="s">
+        <v>29</v>
+      </c>
+      <c r="U85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" t="s">
+        <v>15</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86" t="s">
+        <v>26</v>
+      </c>
+      <c r="R86" t="s">
+        <v>25</v>
+      </c>
+      <c r="S86" t="s">
+        <v>15</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="S87" t="s">
+        <v>10</v>
+      </c>
+      <c r="T87">
+        <f>T73</f>
+        <v>70</v>
+      </c>
+      <c r="U87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="S88" t="s">
         <v>9</v>
       </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74" t="s">
+      <c r="T88">
+        <f>T87</f>
+        <v>70</v>
+      </c>
+      <c r="U88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="M90" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S74" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T74" s="4">
-        <v>1</v>
-      </c>
-      <c r="U74" s="5" t="s">
+      <c r="N90" s="12">
+        <f>J81*(O80*2+O81*2+O82*2+O83)+J82*O86</f>
+        <v>725</v>
+      </c>
+      <c r="O90" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P90" s="12" t="str">
+        <f>K81</f>
+        <v>al giorno</v>
+      </c>
+      <c r="R90" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H75" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J75" s="7">
-        <v>25</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N75" t="s">
-        <v>12</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75" t="s">
-        <v>28</v>
-      </c>
-      <c r="R75" s="6"/>
-      <c r="S75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T75" s="7">
-        <v>1</v>
-      </c>
-      <c r="U75" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="N76" t="s">
-        <v>18</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="M78" t="s">
-        <v>21</v>
-      </c>
-      <c r="N78" t="s">
-        <v>60</v>
-      </c>
-      <c r="O78" t="s">
-        <v>33</v>
-      </c>
-      <c r="P78" t="s">
-        <v>61</v>
-      </c>
-      <c r="R78" t="s">
-        <v>21</v>
-      </c>
-      <c r="S78" t="s">
-        <v>60</v>
-      </c>
-      <c r="T78" t="s">
-        <v>33</v>
-      </c>
-      <c r="U78" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="M79" t="s">
-        <v>29</v>
-      </c>
-      <c r="N79" t="s">
-        <v>18</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79" t="s">
-        <v>30</v>
-      </c>
-      <c r="R79" t="s">
-        <v>29</v>
-      </c>
-      <c r="S79" t="s">
-        <v>18</v>
-      </c>
-      <c r="T79">
-        <v>1</v>
-      </c>
-      <c r="U79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="S80" t="s">
-        <v>12</v>
-      </c>
-      <c r="T80">
-        <f>T67</f>
-        <v>70</v>
-      </c>
-      <c r="U80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="S81" t="s">
-        <v>9</v>
-      </c>
-      <c r="T81">
-        <f>T80</f>
-        <v>70</v>
-      </c>
-      <c r="U81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="M83" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N83" s="12">
-        <f>J74*(O74*2+O75*2+O76*2)+J75*O79</f>
-        <v>625</v>
-      </c>
-      <c r="O83" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P83" s="12" t="str">
-        <f>K74</f>
-        <v>al giorno</v>
-      </c>
-      <c r="R83" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S83" s="22">
-        <f>J74*(T74*2+T75*2)+J75*(T79+T80+T81)</f>
+      <c r="S90" s="22">
+        <f>J81*(T80*2+T81*2)+J82*(T86+T87+T88)</f>
         <v>3925</v>
       </c>
-      <c r="T83" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="U83" s="22" t="str">
-        <f>K74</f>
+      <c r="T90" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U90" s="22" t="str">
+        <f>K81</f>
         <v>al giorno</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="H72:K72"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="H79:K79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
